--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarada\MoneyARC\Investor-portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CC1D27-68FA-4C02-92E1-2B7B086093B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3145936D-2AD2-43ED-BAB1-547BB28678D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4584" yWindow="1860" windowWidth="17280" windowHeight="8964" xr2:uid="{264983EA-2D30-45DD-B352-1199918DDFE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{264983EA-2D30-45DD-B352-1199918DDFE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +445,7 @@
         <v>172.52</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -459,7 +459,7 @@
         <v>193.62</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -473,7 +473,7 @@
         <v>1421.5</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -487,7 +487,7 @@
         <v>1884.5</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio.xlsx
+++ b/Portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarada\MoneyARC\Investor-portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3145936D-2AD2-43ED-BAB1-547BB28678D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EA0F0A-B425-432E-88D3-F04515C5B5A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{264983EA-2D30-45DD-B352-1199918DDFE0}"/>
+    <workbookView xWindow="4584" yWindow="1860" windowWidth="17280" windowHeight="8964" xr2:uid="{264983EA-2D30-45DD-B352-1199918DDFE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Barclays</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>QTY</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>SECT</t>
   </si>
 </sst>
 </file>
@@ -412,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3843BE9E-32BB-43D1-85E7-E8E436089F2B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -433,8 +448,11 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -447,8 +465,11 @@
       <c r="D2">
         <v>50</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -461,8 +482,11 @@
       <c r="D3">
         <v>36</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -475,8 +499,11 @@
       <c r="D4">
         <v>43</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -488,6 +515,9 @@
       </c>
       <c r="D5">
         <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
